--- a/diem_danh_giay_26_03_23_12_39_19.xlsx
+++ b/diem_danh_giay_26_03_23_12_39_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://feedu-my.sharepoint.com/personal/tuannda3_fe_edu_vn/Documents/POLY DOCS/WEB1043/SP23/IT18315/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4298C9BB85401467794E62397146D101E8E0D677" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06358614-BD36-2F40-8BA7-85CB5615FDF8}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_4298C9BB85401467794E62397146D101E8E0D677" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12FA705F-DCB6-A744-9558-1FF7CBE1DA72}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,7 +884,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2012,7 +2012,7 @@
         <v>83</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
